--- a/expressApiServer/src/main/resources/kdniao.xlsx
+++ b/expressApiServer/src/main/resources/kdniao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="138">
   <si>
     <t>快递公司</t>
   </si>
@@ -413,74 +413,141 @@
     <t>USPS</t>
   </si>
   <si>
+    <t>xinbangwuliu</t>
+  </si>
+  <si>
+    <t>XBWL</t>
+  </si>
+  <si>
+    <t>新邦物流</t>
+  </si>
+  <si>
+    <t>xinfengwuliu</t>
+  </si>
+  <si>
+    <t>XFEX</t>
+  </si>
+  <si>
+    <t>信丰物流</t>
+  </si>
+  <si>
+    <t>zhongtiewuliu</t>
+  </si>
+  <si>
+    <t>ZTKY</t>
+  </si>
+  <si>
+    <t>中铁快运</t>
+  </si>
+  <si>
+    <t>zhongyouwuliu</t>
+  </si>
+  <si>
+    <t>ZYWL</t>
+  </si>
+  <si>
+    <t>中邮物流</t>
+  </si>
+  <si>
+    <t>annengwuliu</t>
+  </si>
+  <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t>安能物流</t>
+  </si>
+  <si>
+    <t>chuanxiwuliu</t>
+  </si>
+  <si>
+    <t>CXHY</t>
+  </si>
+  <si>
+    <t>传喜物流</t>
+  </si>
+  <si>
+    <t>九曳供应链</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIUYE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiuye</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>USPS美国邮政</t>
-  </si>
-  <si>
-    <t>xinbangwuliu</t>
-  </si>
-  <si>
-    <t>XBWL</t>
-  </si>
-  <si>
-    <t>新邦物流</t>
-  </si>
-  <si>
-    <t>xinfengwuliu</t>
-  </si>
-  <si>
-    <t>XFEX</t>
-  </si>
-  <si>
-    <t>信丰物流</t>
-  </si>
-  <si>
-    <t>zhongtiewuliu</t>
-  </si>
-  <si>
-    <t>ZTKY</t>
-  </si>
-  <si>
-    <t>中铁快运</t>
-  </si>
-  <si>
-    <t>zhongyouwuliu</t>
-  </si>
-  <si>
-    <t>ZYWL</t>
-  </si>
-  <si>
-    <t>中邮物流</t>
-  </si>
-  <si>
-    <t>annengwuliu</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>安能物流</t>
-  </si>
-  <si>
-    <t>chuanxiwuliu</t>
-  </si>
-  <si>
-    <t>CXHY</t>
-  </si>
-  <si>
-    <t>传喜物流</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>急先达</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳吉快运</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNEX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiajiwuliu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>支持（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅支持付费开通的在途监控接口&lt;8001/8008&gt;查询）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jixianda</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如风达</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rufengda</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,68 +570,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -573,87 +587,16 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,19 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,192 +629,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -969,255 +732,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,64 +788,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="着色 1 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1576,25 +1069,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:6">
+    <row r="2" spans="1:7" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1633,8 +1126,9 @@
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:6">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1147,9 @@
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="19" customHeight="1" spans="1:6">
+    <row r="5" spans="1:7" ht="18.95" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1187,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1732,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1750,7 +1245,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1263,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="1:6">
+    <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1779,14 +1274,14 @@
         <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +1299,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1843,8 +1338,9 @@
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1861,8 +1357,9 @@
         <v>9</v>
       </c>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1880,7 +1377,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1393,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1912,7 +1409,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1928,7 +1425,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>57</v>
       </c>
@@ -1944,7 +1441,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -1960,7 +1457,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>63</v>
       </c>
@@ -1975,8 +1472,9 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1992,7 +1490,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -2008,7 +1506,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -2024,7 +1522,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -2040,7 +1538,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -2056,7 +1554,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
@@ -2072,7 +1570,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>83</v>
       </c>
@@ -2088,7 +1586,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2104,7 +1602,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -2120,7 +1618,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -2138,7 +1636,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -2156,7 +1654,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -2172,7 +1670,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -2190,15 +1688,15 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>106</v>
+      <c r="C35" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -2206,15 +1704,15 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>9</v>
@@ -2222,85 +1720,87 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="14" t="s">
+      <c r="B38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -2308,16 +1808,80 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A15 C15 A16 C16 A17 C17 A19 C19 A20 C20 A21 C21 A23 C23 A24 C24 A25 C25 A26 C26 A27 C27 C29 A30 C30 A31 C31 A32 C32 A33 C33 A34 C34 A35 C35 A36 C36 A37 C37 A38 C38 A39 C39 A40 C40 A1:A11 A12:A14 C1:C11 C12:C14" errorStyle="warning">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A19:A21 C19:C21 A23:A27 C23:C27 A30:A40 C29:C40 A1:A17 C1:C17">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A28" errorStyle="warning">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A28">
       <formula1>COUNTIF($C:$C,A28)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>